--- a/exam_data.xlsx
+++ b/exam_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongkun/Desktop/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3578154-BA8F-6A41-A950-041762A5C97E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D600E0-FF7D-A042-AC5A-C0CAB18E3247}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
   <si>
     <t>物理节点信息</t>
   </si>
@@ -172,6 +172,297 @@
   <si>
     <t>MRWS 调度方法</t>
     <rPh sb="7" eb="8">
+      <t>diao'dufang'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-128M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-128M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>508.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186.306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>271.543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>503.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>277.968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115.514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148.423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163.576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>269.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214.765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214.034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222.580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>194.873</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>485.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>273.394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264.711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88.563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204.904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>274.892</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163.607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165.538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163.344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>265.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>273.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>391.120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>388.153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382.302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>428.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>271.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>428.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>606.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>216.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151.996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>418.511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101.356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215.696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>620.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstFit 调度方法</t>
+    <rPh sb="7" eb="8">
       <t>diao'du</t>
     </rPh>
     <rPh sb="9" eb="10">
@@ -179,12 +470,56 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186.186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151.194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133.229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>277.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>276.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,29 +561,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="华文宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="华文宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,17 +591,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -308,33 +669,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,724 +1024,1379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.1640625" style="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="1"/>
-    <col min="8" max="8" width="21.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="19.1640625" style="1"/>
+    <col min="1" max="1" width="19.1640625" style="3"/>
+    <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.1640625" style="3"/>
+    <col min="6" max="6" width="20.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="3"/>
+    <col min="8" max="8" width="21.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="19.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="43" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="23" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="23" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>2.4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="23" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>2.4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="23" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>2.4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="23" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>2.4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="23" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>2.4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="44" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="23" customHeight="1">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="26" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="27" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="27" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="23" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="23" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <v>178.08600000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>258.14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>221.49199999999999</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>211.071</v>
+      </c>
+      <c r="H18" s="3">
+        <v>441.12</v>
+      </c>
+      <c r="I18" s="3">
+        <v>266.654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="23" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
+        <v>77.847999999999999</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3">
+        <v>89.287000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="23" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="23" customHeight="1">
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="23" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="23" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="23" customHeight="1">
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="23" customHeight="1">
+      <c r="G25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="23" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="23" customHeight="1">
+      <c r="B27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="23" customHeight="1">
+      <c r="G28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="23" customHeight="1">
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="23" customHeight="1">
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="23" customHeight="1">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" s="8" customFormat="1" ht="45" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" ht="23" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="23" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="23" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="23" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="23" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="23" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="23" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="23" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="23" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="23" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" ht="23" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="23" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" ht="23" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" ht="23" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="23" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="23" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="23" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="23" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="23" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="23" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" ht="23" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="56" spans="1:9" ht="47" customHeight="1">
+      <c r="A56" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" ht="23" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="23" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="5">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="23" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5">
+        <v>4</v>
+      </c>
+      <c r="F59" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+    </row>
+    <row r="60" spans="1:9" ht="23" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D60" s="5">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="23" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="5">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5">
+        <v>9</v>
+      </c>
+      <c r="E61" s="5">
+        <v>8</v>
+      </c>
+      <c r="F61" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="23" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="23" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="3">
+        <v>200.22399999999999</v>
+      </c>
+      <c r="C64" s="3">
+        <v>266.12200000000001</v>
+      </c>
+      <c r="D64" s="3">
+        <v>214.172</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="3">
+        <v>268.16500000000002</v>
+      </c>
+      <c r="H64" s="3">
+        <v>421.43200000000002</v>
+      </c>
+      <c r="I64" s="3">
+        <v>241.916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="23" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="3">
+        <v>81.745000000000005</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="3">
+        <v>78.543999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="23" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="23" customHeight="1">
+      <c r="C67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="23" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="G68" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="23" customHeight="1">
+      <c r="B69" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="23" customHeight="1">
+      <c r="G70" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="23" customHeight="1">
+      <c r="B71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="23" customHeight="1">
+      <c r="B72" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="23" customHeight="1">
+      <c r="G73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="23" customHeight="1">
+      <c r="B74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" ht="23" customHeight="1">
+      <c r="B75" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="23" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" ht="23" customHeight="1">
+      <c r="B79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="23" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="6">
+        <v>3</v>
+      </c>
+      <c r="C80" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D80" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E80" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="27" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="F80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="23" customHeight="1">
+      <c r="A81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B81" s="6">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6">
+        <v>4</v>
+      </c>
+      <c r="D81" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E81" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F81" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="23" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="6">
+        <v>3</v>
+      </c>
+      <c r="C82" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D82" s="6">
         <v>3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E82" s="6">
+        <v>3</v>
+      </c>
+      <c r="F82" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="23" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="83" spans="1:9" ht="23" customHeight="1">
+      <c r="A83" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B83" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="C83" s="6">
+        <v>10</v>
+      </c>
+      <c r="D83" s="6">
         <v>9</v>
       </c>
-      <c r="F15" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="23" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="E83" s="6">
+        <v>9</v>
+      </c>
+      <c r="F83" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="23" customHeight="1">
+      <c r="A85" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E85" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F85" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G85" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H85" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I85" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="86" spans="1:9" ht="23" customHeight="1">
+      <c r="A86" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1">
-        <v>178.08600000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>258.14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>221.49199999999999</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="1" t="s">
+      <c r="B86" s="3">
+        <v>186.75700000000001</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="1">
-        <v>211.071</v>
-      </c>
-      <c r="H18" s="1">
-        <v>441.12</v>
-      </c>
-      <c r="I18" s="1">
-        <v>266.654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="23" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="G86" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" s="6">
+        <v>280.35700000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="23" customHeight="1">
+      <c r="A87" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1">
-        <v>77.847999999999999</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="1" t="s">
+      <c r="B87" s="3">
+        <v>129.66800000000001</v>
+      </c>
+      <c r="C87" s="6">
+        <v>263.32799999999997</v>
+      </c>
+      <c r="D87" s="6">
+        <v>222.249</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="1">
-        <v>89.287000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="23" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="G87" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="23" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="49" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="23" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="23" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="23" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="23" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="23" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="23" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="23" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="23" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>200.22399999999999</v>
-      </c>
-      <c r="C31" s="5">
-        <v>266.12200000000001</v>
-      </c>
-      <c r="D31" s="5">
-        <v>214.172</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="5">
-        <v>268.16500000000002</v>
-      </c>
-      <c r="H31" s="5">
-        <v>421.43200000000002</v>
-      </c>
-      <c r="I31" s="5">
-        <v>241.916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="23" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>81.745000000000005</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="5">
-        <v>78.543999999999997</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="23" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="47" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="23" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="23" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="23" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="23" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="23" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" ht="23" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" ht="23" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="23" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="6">
-        <v>200.22399999999999</v>
-      </c>
-      <c r="C44" s="6">
-        <v>266.12200000000001</v>
-      </c>
-      <c r="D44" s="6">
-        <v>214.172</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="23" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="6">
-        <v>102.745</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" ht="23" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="C88" s="6">
+        <v>261.03199999999998</v>
+      </c>
+      <c r="D88" s="6">
+        <v>223.81200000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="23" customHeight="1">
+      <c r="B89" s="3">
+        <v>201.48699999999999</v>
+      </c>
+      <c r="C89" s="6">
+        <v>257.21100000000001</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="23" customHeight="1">
+      <c r="B90" s="3">
+        <v>122.125</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="23" customHeight="1">
+      <c r="B92" s="3">
+        <v>200.876</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="23" customHeight="1">
+      <c r="B93" s="3">
+        <v>135.10300000000001</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="95" spans="1:9" ht="23" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="3">
+        <v>189.66800000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="23" customHeight="1">
+      <c r="B96" s="3">
+        <v>154.256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="23" customHeight="1">
+      <c r="A98" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" s="6">
+        <v>146.71899999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="23" customHeight="1">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6">
+        <v>83.134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="23" customHeight="1">
+      <c r="B101" s="6">
+        <v>144.71899999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="23" customHeight="1">
+      <c r="B102" s="6">
+        <v>86.731999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="23" customHeight="1">
+      <c r="B104" s="6">
+        <v>144.77500000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="23" customHeight="1">
+      <c r="B105" s="6">
+        <v>78.947999999999993</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="E43:E45"/>
+  <mergeCells count="9">
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="E85:E87"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E63:E65"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E39:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exam_data.xlsx
+++ b/exam_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongkun/Desktop/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D600E0-FF7D-A042-AC5A-C0CAB18E3247}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEFF4ED-0B38-1343-AD65-BA08E296FD10}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
   <si>
     <t>物理节点信息</t>
   </si>
@@ -512,6 +512,62 @@
   </si>
   <si>
     <t>276.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>387.948</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>390.104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>394.022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225.365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141.326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450.105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178.277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>483.233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205.337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144.604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430.766</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>626.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="23" customHeight="1"/>
@@ -1651,12 +1707,19 @@
       <c r="C40" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="23" customHeight="1">
       <c r="A41" s="8" t="s">
@@ -1668,12 +1731,15 @@
       <c r="C41" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="H41" s="15"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" ht="23" customHeight="1">
       <c r="A42" s="8"/>
@@ -1681,7 +1747,9 @@
       <c r="C42" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -1694,9 +1762,15 @@
         <v>114</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="23" customHeight="1">
       <c r="A44" s="8" t="s">
@@ -1706,9 +1780,11 @@
         <v>115</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="G44" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" ht="23" customHeight="1">
       <c r="A45" s="8"/>
@@ -1716,9 +1792,9 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="23" customHeight="1">
       <c r="A46" s="8"/>
@@ -1728,9 +1804,15 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="23" customHeight="1">
       <c r="A47" s="8"/>
@@ -1740,9 +1822,11 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="23" customHeight="1">
       <c r="A48" s="8"/>
